--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="10575" windowHeight="6495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestLoginLogout" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -369,7 +369,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
